--- a/JYunOther/数据库表.xlsx
+++ b/JYunOther/数据库表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,51 +41,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>VARCHAR(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录界面配置文件数据库(TABLE_USER_PASS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动登录配置文件数据库(TABLE_LOGIN_CONFIG)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remember_pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>userpass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>记住密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remember_pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto_login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录界面配置文件数据库(TABLE_USER_PASS)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动登录配置文件数据库(TABLE_AUTO_LOGIN)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +425,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -429,7 +437,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -446,22 +454,16 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -469,18 +471,15 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -493,7 +492,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -501,15 +506,27 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/JYunOther/数据库表.xlsx
+++ b/JYunOther/数据库表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>userpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端用户名密码表(TABLE_USER_PASS)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A12" sqref="A12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -529,10 +533,53 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JYunOther/数据库表.xlsx
+++ b/JYunOther/数据库表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,82 @@
   </si>
   <si>
     <t>服务端用户名密码表(TABLE_USER_PASS)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端文件引用表(TABLE_FILE_COUNT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像文件MD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端用户头像表(TABLE_USER_HEAD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径("username:path"的MD5值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录缓存数据表(TABLE_FILE_CHCHE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -533,53 +609,191 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C30" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JYunOther/数据库表.xlsx
+++ b/JYunOther/数据库表.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,44 @@
   </si>
   <si>
     <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directory_md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "PATH":[
+    {
+         "name":"XXX",
+         "type":"foder"
+    },
+    {
+        "name":"xxx",
+        "type":"music",
+        "md5" :"XXXXXXXX"
+    }
+    ]
+}
+创建目录等于生成数据表项
+删除目录等于删除数据项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端文件目录表(TABLE_(USERNAME)_HOME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,10 +255,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -786,8 +827,171 @@
         <v>28</v>
       </c>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="D45:H61"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A27:H27"/>

--- a/JYunOther/数据库表.xlsx
+++ b/JYunOther/数据库表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,31 +125,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端用户头像表(TABLE_USER_HEAD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径("username:path"的MD5值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录缓存数据表(TABLE_FILE_CHCHE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directory_md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端文件目录表(TABLE_(USERNAME)_HOME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端文件url(TABLE_FILE_URL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>file_md5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端用户头像表(TABLE_USER_HEAD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径("username:path"的MD5值)</t>
+    <t>file_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -157,61 +209,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目录缓存数据表(TABLE_FILE_CHCHE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>file_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>directory_md5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "PATH":[
-    {
-         "name":"XXX",
-         "type":"foder"
-    },
-    {
-        "name":"xxx",
-        "type":"music",
-        "md5" :"XXXXXXXX"
-    }
-    ]
-}
-创建目录等于生成数据表项
-删除目录等于删除数据项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端文件目录表(TABLE_(USERNAME)_HOME)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_list</t>
+    <t>路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载目录(DOWNLOAD_PATH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,10 +272,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -557,16 +571,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -599,17 +613,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -651,26 +665,26 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -681,10 +695,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -692,26 +706,59 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -744,16 +791,16 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -786,16 +833,16 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -813,7 +860,7 @@
         <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,27 +868,27 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="A42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
@@ -855,7 +902,7 @@
         <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -863,27 +910,30 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
         <v>40</v>
       </c>
-      <c r="C45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -891,113 +941,128 @@
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A47:H47"/>
     <mergeCell ref="A42:H42"/>
-    <mergeCell ref="D45:H61"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A32:H32"/>
     <mergeCell ref="A37:H37"/>
     <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A16:H16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JYunOther/数据库表.xlsx
+++ b/JYunOther/数据库表.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,127 +105,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>头像文件MD5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端用户头像表(TABLE_USER_HEAD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径("username:path"的MD5值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录缓存数据表(TABLE_FILE_CHCHE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directory_md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端文件目录表(TABLE_(USERNAME)_HOME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载目录(DOWNLOAD_PATH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>download_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端文件url(TABLE_FILE_URL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_md5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>服务端文件引用表(TABLE_FILE_COUNT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像文件MD5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端用户头像表(TABLE_USER_HEAD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径("username:path"的MD5值)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录缓存数据表(TABLE_FILE_CHCHE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>directory_md5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端文件目录表(TABLE_(USERNAME)_HOME)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端文件url(TABLE_FILE_URL)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_md5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件md5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keep_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载目录(DOWNLOAD_PATH)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>download_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -666,7 +682,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -678,13 +694,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -695,10 +711,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -706,18 +722,18 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -729,7 +745,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -737,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -745,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -792,7 +808,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -807,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -834,7 +850,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -846,10 +862,10 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
         <v>23</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -857,10 +873,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -868,15 +884,15 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -888,10 +904,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -899,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -910,10 +926,10 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -930,7 +946,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -942,10 +958,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -953,10 +969,10 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -964,10 +980,10 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
